--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B12B0E-59F1-4DA7-9F86-60D928B7FA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331ED25D-366B-4722-9FBF-0869625A831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>SSD Dissimilarity</t>
   </si>
   <si>
-    <t>SAD  dissimilarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC </t>
-  </si>
-  <si>
     <t>Naive Runtime(seconds)</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>D min</t>
+  </si>
+  <si>
+    <t>SSIM</t>
+  </si>
+  <si>
+    <t>MSQ</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="D4:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>2</v>
@@ -436,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331ED25D-366B-4722-9FBF-0869625A831B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A61CAE1-9B62-45C7-B3C8-ED71023263EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Num</t>
   </si>
@@ -36,9 +36,6 @@
     <t>DP Runtime(seconds)</t>
   </si>
   <si>
-    <t>SSD Dissimilarity</t>
-  </si>
-  <si>
     <t>Naive Runtime(seconds)</t>
   </si>
   <si>
@@ -48,10 +45,16 @@
     <t>D min</t>
   </si>
   <si>
-    <t>SSIM</t>
-  </si>
-  <si>
-    <t>MSQ</t>
+    <t>SBM Runtime</t>
+  </si>
+  <si>
+    <t>SSD Dissimilarity(Naïve-DP-SBM)</t>
+  </si>
+  <si>
+    <t>MSQ (Naïve-DP-SBM)</t>
+  </si>
+  <si>
+    <t>SSIM (Naïve-DP-SBM)</t>
   </si>
 </sst>
 </file>
@@ -397,55 +400,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:L25"/>
+  <dimension ref="B4:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="4:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:11" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -453,12 +465,13 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="4">
+    </row>
+    <row r="7" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -466,12 +479,13 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="4">
+    </row>
+    <row r="8" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -479,12 +493,13 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="4">
+    </row>
+    <row r="9" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -492,12 +507,13 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
+    </row>
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -505,12 +521,13 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="4">
+    </row>
+    <row r="11" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -518,12 +535,13 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="4">
+    </row>
+    <row r="12" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -531,12 +549,13 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="4">
+    </row>
+    <row r="13" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -544,12 +563,13 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="4">
+    </row>
+    <row r="14" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -557,12 +577,13 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="4">
+    </row>
+    <row r="15" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -570,12 +591,13 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="4">
+    </row>
+    <row r="16" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -583,12 +605,13 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="4">
+    </row>
+    <row r="17" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -596,12 +619,13 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4">
+    </row>
+    <row r="18" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -609,12 +633,13 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="4">
+    </row>
+    <row r="19" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -622,12 +647,13 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="4">
+    </row>
+    <row r="20" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -635,12 +661,13 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="4">
+    </row>
+    <row r="21" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>16</v>
       </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -648,12 +675,13 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="4">
+    </row>
+    <row r="22" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -661,12 +689,13 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="4">
+    </row>
+    <row r="23" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>18</v>
       </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -674,12 +703,13 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
+    </row>
+    <row r="24" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>19</v>
       </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -687,12 +717,13 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="4:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="4">
+    </row>
+    <row r="25" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -700,7 +731,6 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A61CAE1-9B62-45C7-B3C8-ED71023263EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40DD532-9CBF-428B-9AF1-D06284F7336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Num</t>
   </si>
@@ -55,16 +55,109 @@
   </si>
   <si>
     <t>SSIM (Naïve-DP-SBM)</t>
+  </si>
+  <si>
+    <t>Aloe</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Baby1</t>
+  </si>
+  <si>
+    <t>Baby2</t>
+  </si>
+  <si>
+    <t>Baby3</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Bowling1</t>
+  </si>
+  <si>
+    <t>Bowling2</t>
+  </si>
+  <si>
+    <t>Cloths1</t>
+  </si>
+  <si>
+    <t>Cloths2</t>
+  </si>
+  <si>
+    <t>Cloths3</t>
+  </si>
+  <si>
+    <t>Cloths4</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Dolls</t>
+  </si>
+  <si>
+    <t>Drumsticks</t>
+  </si>
+  <si>
+    <t>Dwarves</t>
+  </si>
+  <si>
+    <t>Flowerpots</t>
+  </si>
+  <si>
+    <t>Lampshade1</t>
+  </si>
+  <si>
+    <t>Lampshade2</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Midd1</t>
+  </si>
+  <si>
+    <t>Midd2</t>
+  </si>
+  <si>
+    <t>Meobius</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>Rocks1</t>
+  </si>
+  <si>
+    <t>Rocks2</t>
+  </si>
+  <si>
+    <t>Wood1</t>
+  </si>
+  <si>
+    <t>Wood2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -120,6 +213,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:K25"/>
+  <dimension ref="B4:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,7 +550,9 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -470,7 +566,9 @@
       <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -484,7 +582,9 @@
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -498,7 +598,9 @@
       <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -512,7 +614,9 @@
       <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -526,7 +630,9 @@
       <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -540,7 +646,9 @@
       <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -554,7 +662,9 @@
       <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -568,7 +678,9 @@
       <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -582,7 +694,9 @@
       <c r="B15" s="4">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -596,7 +710,9 @@
       <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -610,7 +726,9 @@
       <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -624,7 +742,9 @@
       <c r="B18" s="4">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -638,7 +758,9 @@
       <c r="B19" s="4">
         <v>14</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -652,7 +774,9 @@
       <c r="B20" s="4">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -666,7 +790,9 @@
       <c r="B21" s="4">
         <v>16</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -680,7 +806,9 @@
       <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -694,7 +822,9 @@
       <c r="B23" s="4">
         <v>18</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -708,7 +838,9 @@
       <c r="B24" s="4">
         <v>19</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -722,7 +854,9 @@
       <c r="B25" s="4">
         <v>20</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -732,7 +866,152 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
+    <row r="26" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>29</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40DD532-9CBF-428B-9AF1-D06284F7336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56AA0BA-0A6A-4A32-AD10-77158EBEF44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Num</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Wood2</t>
+  </si>
+  <si>
+    <t>3.3e8-1.8e8-2.5e9</t>
+  </si>
+  <si>
+    <t>6.2e8-1.0e9-2.2e9</t>
+  </si>
+  <si>
+    <t>2.3e8-2.9e8-2.7e9</t>
+  </si>
+  <si>
+    <t>3.1e8-1.3e8-2.3e9</t>
+  </si>
+  <si>
+    <t>4.0e8-7.8e8-2.6e9</t>
+  </si>
+  <si>
+    <t>4.6e8-5.9e8-1.9e9</t>
   </si>
 </sst>
 </file>
@@ -198,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +232,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -508,7 +531,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="9" max="9" width="17" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
@@ -536,7 +559,7 @@
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -553,12 +576,24 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.09</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
@@ -569,12 +604,24 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="D7" s="5">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
@@ -585,12 +632,24 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
@@ -601,12 +660,24 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4.29</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
@@ -617,12 +688,24 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>200</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5.16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.57</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
@@ -633,12 +716,24 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.88</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5.28</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
@@ -649,12 +744,16 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>200</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
@@ -665,12 +764,16 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5">
+        <v>200</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
@@ -681,12 +784,16 @@
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5">
+        <v>200</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
@@ -697,12 +804,16 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5">
+        <v>200</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
@@ -713,12 +824,16 @@
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5">
+        <v>200</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
@@ -729,12 +844,16 @@
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
+        <v>200</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -745,12 +864,16 @@
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <v>200</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
@@ -761,12 +884,16 @@
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>200</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
@@ -777,12 +904,16 @@
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>200</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
@@ -793,12 +924,16 @@
       <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
+        <v>200</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
@@ -809,12 +944,16 @@
       <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="5">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
+        <v>200</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
@@ -825,12 +964,16 @@
       <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
+        <v>200</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
@@ -841,12 +984,16 @@
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>200</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
@@ -857,12 +1004,16 @@
       <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5">
+        <v>200</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
@@ -873,12 +1024,16 @@
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <v>200</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
@@ -889,12 +1044,16 @@
       <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5">
+        <v>200</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
@@ -905,12 +1064,16 @@
       <c r="C28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5">
+        <v>200</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
@@ -921,12 +1084,16 @@
       <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="5">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>200</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
@@ -937,12 +1104,16 @@
       <c r="C30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <v>200</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
@@ -953,12 +1124,16 @@
       <c r="C31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="5">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
+        <v>200</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -969,12 +1144,16 @@
       <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5">
+        <v>200</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
@@ -985,12 +1164,16 @@
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>200</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
@@ -1001,12 +1184,16 @@
       <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="5">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5">
+        <v>200</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56AA0BA-0A6A-4A32-AD10-77158EBEF44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43BE76-BC06-4DCB-90B0-502C35A48609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Num</t>
   </si>
@@ -81,18 +81,6 @@
     <t>Bowling2</t>
   </si>
   <si>
-    <t>Cloths1</t>
-  </si>
-  <si>
-    <t>Cloths2</t>
-  </si>
-  <si>
-    <t>Cloths3</t>
-  </si>
-  <si>
-    <t>Cloths4</t>
-  </si>
-  <si>
     <t>Computer</t>
   </si>
   <si>
@@ -160,6 +148,36 @@
   </si>
   <si>
     <t>4.6e8-5.9e8-1.9e9</t>
+  </si>
+  <si>
+    <t>6.5e8-1.7e9-2.6e9</t>
+  </si>
+  <si>
+    <t>4.9e8-6.6e8-2.4e9</t>
+  </si>
+  <si>
+    <t>Cloth1</t>
+  </si>
+  <si>
+    <t>Cloth2</t>
+  </si>
+  <si>
+    <t>Cloth3</t>
+  </si>
+  <si>
+    <t>Cloth4</t>
+  </si>
+  <si>
+    <t>1.7e8-3.19e8-2.17e9</t>
+  </si>
+  <si>
+    <t>3.5e8-6.0e8-1.8e9</t>
+  </si>
+  <si>
+    <t>2.1e8-2.8e8-2.5e9</t>
+  </si>
+  <si>
+    <t>4.2e8-7.1e8-2.1e9</t>
   </si>
 </sst>
 </file>
@@ -216,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,6 +255,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,18 +544,19 @@
   <dimension ref="B4:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
@@ -576,23 +601,23 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>200</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="11">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11">
+        <v>200</v>
+      </c>
+      <c r="F6" s="11">
         <v>4.09</v>
       </c>
       <c r="G6" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -604,23 +629,23 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="11">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11">
+        <v>200</v>
+      </c>
+      <c r="F7" s="11">
         <v>4.55</v>
       </c>
       <c r="G7" s="5">
         <v>5.41</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -632,23 +657,23 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11">
+        <v>200</v>
+      </c>
+      <c r="F8" s="11">
         <v>4.55</v>
       </c>
       <c r="G8" s="5">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -660,23 +685,23 @@
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>200</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>200</v>
+      </c>
+      <c r="F9" s="11">
         <v>4.04</v>
       </c>
       <c r="G9" s="5">
         <v>4.29</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -688,23 +713,23 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>200</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="11">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>200</v>
+      </c>
+      <c r="F10" s="11">
         <v>5.16</v>
       </c>
       <c r="G10" s="5">
         <v>4.57</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -716,23 +741,23 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="11">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11">
+        <v>200</v>
+      </c>
+      <c r="F11" s="11">
         <v>4.88</v>
       </c>
       <c r="G11" s="5">
         <v>5.28</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -744,16 +769,24 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>200</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
+      <c r="D12" s="11">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11">
+        <v>200</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.38</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
@@ -764,16 +797,24 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5">
-        <v>200</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11">
+        <v>200</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.99</v>
+      </c>
+      <c r="H13" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
@@ -782,18 +823,26 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>200</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.34</v>
+      </c>
+      <c r="H14" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
@@ -802,18 +851,26 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5">
-        <v>200</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11">
+        <v>200</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4.18</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4.83</v>
+      </c>
+      <c r="H15" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
@@ -822,18 +879,26 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5">
-        <v>200</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11">
+        <v>200</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4.33</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.37</v>
+      </c>
+      <c r="H16" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
@@ -842,18 +907,26 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5">
-        <v>200</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11">
+        <v>200</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4.42</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="H17" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -862,17 +935,17 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="11">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11">
+        <v>200</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -882,17 +955,17 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5">
-        <v>200</v>
-      </c>
-      <c r="F19" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -902,17 +975,17 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5">
-        <v>200</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="11">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11">
+        <v>200</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -922,17 +995,17 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5">
-        <v>200</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="11">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11">
+        <v>200</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -942,17 +1015,17 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5">
-        <v>200</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11">
+        <v>200</v>
+      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="9"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -962,17 +1035,17 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="5">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5">
-        <v>200</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D23" s="11">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11">
+        <v>200</v>
+      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -982,17 +1055,17 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5">
-        <v>200</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D24" s="11">
+        <v>7</v>
+      </c>
+      <c r="E24" s="11">
+        <v>200</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="9"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1002,17 +1075,17 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5">
-        <v>200</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D25" s="11">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11">
+        <v>200</v>
+      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="9"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1022,17 +1095,17 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5">
-        <v>200</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11">
+        <v>200</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1042,17 +1115,17 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="5">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5">
-        <v>200</v>
-      </c>
-      <c r="F27" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D27" s="11">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11">
+        <v>200</v>
+      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="9"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1062,17 +1135,17 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="5">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5">
-        <v>200</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D28" s="11">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11">
+        <v>200</v>
+      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="9"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1082,17 +1155,17 @@
         <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="5">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>200</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D29" s="11">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11">
+        <v>200</v>
+      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="9"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1102,17 +1175,17 @@
         <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5">
-        <v>200</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D30" s="11">
+        <v>7</v>
+      </c>
+      <c r="E30" s="11">
+        <v>200</v>
+      </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="9"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1122,17 +1195,17 @@
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="5">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5">
-        <v>200</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D31" s="11">
+        <v>7</v>
+      </c>
+      <c r="E31" s="11">
+        <v>200</v>
+      </c>
+      <c r="F31" s="11"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1142,17 +1215,17 @@
         <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="5">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5">
-        <v>200</v>
-      </c>
-      <c r="F32" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D32" s="11">
+        <v>7</v>
+      </c>
+      <c r="E32" s="11">
+        <v>200</v>
+      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="9"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1162,17 +1235,17 @@
         <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="5">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5">
-        <v>200</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11">
+        <v>200</v>
+      </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1182,17 +1255,17 @@
         <v>29</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="5">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5">
-        <v>200</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7</v>
+      </c>
+      <c r="E34" s="11">
+        <v>200</v>
+      </c>
+      <c r="F34" s="11"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="9"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43BE76-BC06-4DCB-90B0-502C35A48609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEEA188-27EB-43A4-84B2-3B2355880FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Num</t>
   </si>
@@ -81,18 +81,6 @@
     <t>Bowling2</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Dolls</t>
-  </si>
-  <si>
-    <t>Drumsticks</t>
-  </si>
-  <si>
-    <t>Dwarves</t>
-  </si>
-  <si>
     <t>Flowerpots</t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>Midd2</t>
   </si>
   <si>
-    <t>Meobius</t>
-  </si>
-  <si>
     <t>Plastic</t>
   </si>
   <si>
@@ -178,6 +163,48 @@
   </si>
   <si>
     <t>4.2e8-7.1e8-2.1e9</t>
+  </si>
+  <si>
+    <t>6.3e8-7.7e8-2.8e9</t>
+  </si>
+  <si>
+    <t>6.7e8-5.5e8-3.0e9</t>
+  </si>
+  <si>
+    <t>6.2e8-7.8e8-2.2e9</t>
+  </si>
+  <si>
+    <t>5.7e8-6.6e8-2.4e9</t>
+  </si>
+  <si>
+    <t>9.6e8-6.1e8-3.9e9</t>
+  </si>
+  <si>
+    <t>1.0e9-2.8e8-4.0e9</t>
+  </si>
+  <si>
+    <t>Moebius</t>
+  </si>
+  <si>
+    <t>3.8e8-4.6e8-2.5e9</t>
+  </si>
+  <si>
+    <t>8.3e8-7.2e8-2.1e9</t>
+  </si>
+  <si>
+    <t>5.0e8-6.4e8-2.1e9</t>
+  </si>
+  <si>
+    <t>2.8e8-3.7e8-2.2e9</t>
+  </si>
+  <si>
+    <t>2.7e8-4.3e8-2.5e9</t>
+  </si>
+  <si>
+    <t>3.9e8-7.0e8-2.3e9</t>
+  </si>
+  <si>
+    <t>4.2e8-2.6e9-2.0e9</t>
   </si>
 </sst>
 </file>
@@ -541,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:K34"/>
+  <dimension ref="B4:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -617,7 +644,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -645,7 +672,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -673,7 +700,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -701,7 +728,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -729,7 +756,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -757,7 +784,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -785,7 +812,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -813,7 +840,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -823,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11">
         <v>7</v>
@@ -841,7 +868,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -851,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11">
         <v>7</v>
@@ -869,7 +896,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -879,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11">
         <v>7</v>
@@ -897,7 +924,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -907,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11">
         <v>7</v>
@@ -925,7 +952,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -943,10 +970,18 @@
       <c r="E18" s="11">
         <v>200</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="11">
+        <v>5.16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="H18" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
@@ -963,10 +998,18 @@
       <c r="E19" s="11">
         <v>200</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="11">
+        <v>5.91</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H19" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
@@ -983,10 +1026,18 @@
       <c r="E20" s="11">
         <v>200</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="11">
+        <v>3.89</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="H20" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
@@ -1003,10 +1054,18 @@
       <c r="E21" s="11">
         <v>200</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4.84</v>
+      </c>
+      <c r="H21" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
@@ -1014,7 +1073,7 @@
       <c r="B22" s="4">
         <v>17</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="11">
@@ -1023,10 +1082,18 @@
       <c r="E22" s="11">
         <v>200</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="H22" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
@@ -1034,7 +1101,7 @@
       <c r="B23" s="4">
         <v>18</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="11">
@@ -1043,10 +1110,18 @@
       <c r="E23" s="11">
         <v>200</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="11">
+        <v>4.74</v>
+      </c>
+      <c r="G23" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
@@ -1054,8 +1129,8 @@
       <c r="B24" s="4">
         <v>19</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>24</v>
+      <c r="C24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="11">
         <v>7</v>
@@ -1063,10 +1138,18 @@
       <c r="E24" s="11">
         <v>200</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="11">
+        <v>4.83</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="H24" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
@@ -1074,8 +1157,8 @@
       <c r="B25" s="4">
         <v>20</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="11">
         <v>7</v>
@@ -1083,10 +1166,18 @@
       <c r="E25" s="11">
         <v>200</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="11">
+        <v>4.97</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4.37</v>
+      </c>
+      <c r="H25" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
@@ -1095,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="11">
         <v>7</v>
@@ -1103,10 +1194,18 @@
       <c r="E26" s="11">
         <v>200</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H26" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
@@ -1115,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="11">
         <v>7</v>
@@ -1123,10 +1222,18 @@
       <c r="E27" s="11">
         <v>200</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="9"/>
+      <c r="F27" s="11">
+        <v>5.13</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4.34</v>
+      </c>
+      <c r="H27" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
@@ -1135,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11">
         <v>7</v>
@@ -1143,10 +1250,18 @@
       <c r="E28" s="11">
         <v>200</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="11">
+        <v>4.95</v>
+      </c>
+      <c r="G28" s="5">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H28" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
@@ -1155,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="11">
         <v>7</v>
@@ -1163,10 +1278,18 @@
       <c r="E29" s="11">
         <v>200</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="11">
+        <v>5.76</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5.09</v>
+      </c>
+      <c r="H29" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
@@ -1175,7 +1298,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="11">
         <v>7</v>
@@ -1183,92 +1306,20 @@
       <c r="E30" s="11">
         <v>200</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
+      <c r="F30" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4.79</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>26</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="11">
-        <v>7</v>
-      </c>
-      <c r="E31" s="11">
-        <v>200</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>27</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="11">
-        <v>7</v>
-      </c>
-      <c r="E32" s="11">
-        <v>200</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>28</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="11">
-        <v>7</v>
-      </c>
-      <c r="E33" s="11">
-        <v>200</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>29</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="11">
-        <v>7</v>
-      </c>
-      <c r="E34" s="11">
-        <v>200</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2AB76-C316-40E2-8BF9-AAD780E73C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24831F75-FCD3-486C-8DB0-A8B6A43A7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Num</t>
   </si>
@@ -217,6 +226,15 @@
   </si>
   <si>
     <t>SSIM  SBM</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O30"/>
+  <dimension ref="A4:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1775,6 +1793,141 @@
       </c>
       <c r="O30" s="13"/>
     </row>
+    <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <f>AVERAGE(E6:E30)</f>
+        <v>4.8563999999999998</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" ref="F33:N33" si="0">AVERAGE(F6:F30)</f>
+        <v>4.757200000000001</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="0"/>
+        <v>1.3480000000000002E-2</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11">
+        <f t="shared" si="0"/>
+        <v>32.453199999999995</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="0"/>
+        <v>31.068399999999997</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="0"/>
+        <v>28.022400000000001</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.46375999999999995</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000033E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11">
+        <f>MAX(E6:E30)</f>
+        <v>5.91</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" ref="F34:N34" si="1">MAX(F6:F30)</f>
+        <v>5.54</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11">
+        <f t="shared" si="1"/>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="1"/>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11">
+        <f>MIN(E6:E30)</f>
+        <v>3.89</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" ref="F35:N35" si="2">MIN(F6:F30)</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
+        <f t="shared" si="2"/>
+        <v>29.27</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="2"/>
+        <v>28.31</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="2"/>
+        <v>27.37</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24831F75-FCD3-486C-8DB0-A8B6A43A7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1CA99A-7FAE-4A30-BA21-4BCFFEEB12A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1CA99A-7FAE-4A30-BA21-4BCFFEEB12A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130BC723-EBE7-4BFF-83C1-77C959EC741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Num</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Naïve Approach</t>
+  </si>
+  <si>
+    <t>DP approach</t>
+  </si>
+  <si>
+    <t>SBM</t>
   </si>
 </sst>
 </file>
@@ -337,6 +346,4003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Runtime(seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30BB-4F4F-B7CF-4148A4E2E0FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DP Runtime(seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30BB-4F4F-B7CF-4148A4E2E0FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SBM Runtime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30BB-4F4F-B7CF-4148A4E2E0FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1889192960"/>
+        <c:axId val="1932742784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1889192960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932742784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1932742784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1889192960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Similarity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> measure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR  Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>32.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR  DP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>31.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR  SBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$6:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>27.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSIM Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$6:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSIM DP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSIM  SBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$6:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C75-43D9-A3A0-B6DE45F12448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2100131248"/>
+        <c:axId val="2100134576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2100131248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100134576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2100134576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100131248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$32:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Approach</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DP approach</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PSNR  Naïve</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PSNR  DP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PSNR  SBM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SSIM Naïve</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSIM DP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SSIM  SBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8563999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.757200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3480000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.453199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.068399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.022400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46375999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4800000000000033E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D99B-4B71-A366-5CD796B759FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$32:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Approach</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DP approach</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PSNR  Naïve</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PSNR  DP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PSNR  SBM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SSIM Naïve</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSIM DP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SSIM  SBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$34:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D99B-4B71-A366-5CD796B759FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35:$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$32:$N$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Approach</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DP approach</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PSNR  Naïve</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PSNR  DP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PSNR  SBM</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SSIM Naïve</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SSIM DP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SSIM  SBM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$35:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D99B-4B71-A366-5CD796B759FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2047654400"/>
+        <c:axId val="2047654816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2047654400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047654816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2047654816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047654400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398319</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADD3DDD-6141-4764-B763-D36269386EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FFAD27-A092-44AF-B4C5-5C3A41760EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>331210</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>35936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0807BA51-DB6F-48A1-942A-26A94BFB2B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,10 +4608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O35"/>
+  <dimension ref="A4:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1793,6 +5799,40 @@
       </c>
       <c r="O30" s="13"/>
     </row>
+    <row r="32" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>64</v>
@@ -1928,9 +5968,26 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Parsa\Desktop\Study materials\3D Sensing\practice\standard stereo\01_naive_stereo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130BC723-EBE7-4BFF-83C1-77C959EC741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B46BC4-1BB6-45AC-8990-5FD4CA53B105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2046,6 +2046,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overall look</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4610,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+    <sheetView tabSelected="1" topLeftCell="M29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
